--- a/testData.xlsx
+++ b/testData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Код</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Вода Bon Aqua, 0.5л</t>
+  </si>
+  <si>
+    <t>139.99</t>
+  </si>
+  <si>
+    <t>шт.</t>
   </si>
 </sst>
 </file>
@@ -49,14 +55,30 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,64 +172,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,29 +545,29 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -547,97 +575,97 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
-        <v>139</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <v>7622201105518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>102</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16">
+        <v>50.49</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8">
-        <v>7622201105518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>102</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4">
+        <v>3858888677633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>103</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>48</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
-        <v>3858888677633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>103</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="11">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>40822426</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData.xlsx
+++ b/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Код</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>шт.</t>
+  </si>
+  <si>
+    <t>Код1</t>
   </si>
 </sst>
 </file>
@@ -57,12 +60,28 @@
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,67 +191,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,19 +570,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -574,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>101</v>
       </c>
@@ -591,9 +616,9 @@
         <v>7622201105518</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>102</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
@@ -608,8 +633,8 @@
         <v>3858888677633</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>103</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -625,42 +650,42 @@
         <v>40822426</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="18"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="19"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="19"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="19"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="19"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="19"/>

--- a/testData.xlsx
+++ b/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Код</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>139.99</t>
-  </si>
-  <si>
-    <t>шт.</t>
-  </si>
-  <si>
-    <t>Код1</t>
   </si>
 </sst>
 </file>
@@ -254,10 +248,10 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,19 +564,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -599,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>101</v>
       </c>
@@ -609,16 +603,16 @@
       <c r="C2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>10</v>
+      <c r="D2" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="6">
         <v>7622201105518</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>11</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>102</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
@@ -633,8 +627,8 @@
         <v>3858888677633</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>103</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -650,42 +644,42 @@
         <v>40822426</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="18"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="19"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="19"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="19"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="19"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="19"/>
